--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vicky\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Nexturn_Offline\Assessments\data_importer\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{366BBEFD-3AC6-40A5-8CE5-9B4AB8F8233C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35BA59AA-62E2-4BE4-A0D5-922ED56A58BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{5BE3721D-560C-47F2-BB0D-5C549FF97EF1}"/>
+    <workbookView xWindow="2160" yWindow="2160" windowWidth="17280" windowHeight="8880" xr2:uid="{5BE3721D-560C-47F2-BB0D-5C549FF97EF1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
   <si>
     <t>Name</t>
   </si>
@@ -93,6 +93,24 @@
   </si>
   <si>
     <t>chris.lee@example.com</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>MyPassword</t>
+  </si>
+  <si>
+    <t>Role</t>
+  </si>
+  <si>
+    <t>User</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>SuperAdmin</t>
   </si>
 </sst>
 </file>
@@ -478,9 +496,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0AD4015-BACD-4635-B35B-24B190EA5D59}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -488,9 +508,10 @@
     <col min="2" max="2" width="31.6640625" customWidth="1"/>
     <col min="3" max="3" width="26.77734375" customWidth="1"/>
     <col min="4" max="4" width="29.109375" customWidth="1"/>
+    <col min="5" max="5" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -503,8 +524,14 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -517,8 +544,14 @@
       <c r="D2">
         <v>1234567</v>
       </c>
+      <c r="E2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -531,8 +564,14 @@
       <c r="D3">
         <v>2345678</v>
       </c>
+      <c r="E3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -545,8 +584,14 @@
       <c r="D4">
         <v>3456789</v>
       </c>
+      <c r="E4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -559,8 +604,14 @@
       <c r="D5">
         <v>4567890</v>
       </c>
+      <c r="E5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -572,6 +623,12 @@
       </c>
       <c r="D6">
         <v>5678901</v>
+      </c>
+      <c r="E6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
